--- a/Documentation/readme_map.xlsx
+++ b/Documentation/readme_map.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="README.md" localSheetId="0">Tabelle1!$A$1:$F$258</definedName>
+    <definedName name="README.md" localSheetId="0">Tabelle1!$A$1:$F$230</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
   <si>
     <t>Path to flash-file:</t>
   </si>
@@ -442,13 +442,77 @@
   </si>
   <si>
     <t xml:space="preserve">AIN    =  (v*((dec_input/a)-1))/GAIN;  </t>
+  </si>
+  <si>
+    <t>Knowing Bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     convert any Voltage.</t>
+  </si>
+  <si>
+    <t>1.  The oscillator for the AD Converter has a oscillation bug. In this bug-state the ADC can't</t>
+  </si>
+  <si>
+    <t>2.  Caused on en Overvoltage Protection it isn't possible to convert negative Voltages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       o  A quit fix of this Bug is: Disconnect all ports, connect at first the power supply</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       o  If you know that you want to convert negative Voltages, you can change </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>V+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> on </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">           the chanel and convert the negative Voltage as a positive voltage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           and then the rest.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,53 +522,60 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <u/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -542,54 +613,63 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -897,1031 +977,1081 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:D229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="24.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:1" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B28" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B29" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B31" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B32" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B33" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B34" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B37" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="15"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="C37" s="13"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>1</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="15"/>
-    </row>
-    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+      <c r="C38" s="13"/>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+    <row r="47" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
         <v>91</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>27</v>
+      <c r="A52" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>119</v>
+      <c r="A54" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>126</v>
+      <c r="A55" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="18" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="B73" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="15"/>
-    </row>
-    <row r="67" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="18" t="s">
+      <c r="B74" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="8" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C96" s="12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="8" t="s">
+      <c r="D96" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>127</v>
+      <c r="D97" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="18" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C104" s="8" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>58</v>
+      <c r="C111" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>98</v>
-      </c>
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="18" t="s">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>99</v>
+      <c r="A127" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>100</v>
+      <c r="A128" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>121</v>
+      <c r="A131" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
+      <c r="A132" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A138" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="18" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+    </row>
+    <row r="166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A147" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C175" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D175" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
-      <c r="B176" s="10"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
-      <c r="B177" s="10"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="18" t="s">
+    </row>
+    <row r="178" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="8" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="18" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="8" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="10"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="10"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="10"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="10"/>
+    <row r="191" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>106</v>
+      <c r="A196" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="18" t="s">
+      <c r="A199" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="8" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="8" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="18" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="10"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="10"/>
+    </row>
+    <row r="217" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A217" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="18" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="8" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="10"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="10"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="10"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="10"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="10"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="10"/>
-    </row>
-    <row r="245" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A245" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B256" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C256" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B257" s="8" t="s">
+      <c r="B229" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C257" s="8" t="s">
+      <c r="C229" s="12" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
+  <mergeCells count="11">
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="5" manualBreakCount="5">
+    <brk id="46" max="16383" man="1"/>
+    <brk id="88" max="16383" man="1"/>
+    <brk id="133" max="16383" man="1"/>
+    <brk id="176" max="16383" man="1"/>
+    <brk id="215" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
